--- a/excel/LongRangeWeapon.xlsx
+++ b/excel/LongRangeWeapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Athoic\玩的项目\Config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BEE060-0C58-409F-971E-29670CBDB26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D410E-F56C-463F-8F56-273BE2406F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19116" yWindow="2640" windowWidth="17616" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3084" yWindow="2460" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,22 @@
   </si>
   <si>
     <t>武器元素属性（1-无属性；2-火属性；3-冰属性；4-电属性；5-腐蚀属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"瓦解射线"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹类型（1-实弹；2-光束）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ammo_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -484,7 +500,7 @@
     <col min="11" max="11" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -515,8 +531,11 @@
       <c r="K1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -550,8 +569,11 @@
       <c r="K2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -585,8 +607,11 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -620,8 +645,11 @@
       <c r="K4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -655,8 +683,11 @@
       <c r="K5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -690,8 +721,11 @@
       <c r="K6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
@@ -725,8 +759,11 @@
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51</v>
       </c>
@@ -760,8 +797,11 @@
       <c r="K8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>61</v>
       </c>
@@ -795,8 +835,11 @@
       <c r="K9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
@@ -829,6 +872,47 @@
       </c>
       <c r="K10">
         <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
